--- a/biology/Zoologie/Chthoniidae/Chthoniidae.xlsx
+++ b/biology/Zoologie/Chthoniidae/Chthoniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chthoniidae sont une famille de pseudoscorpions. 
 Elle comporte plus de 700 espèces dans 34 genres.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Europe, en Amérique, en Afrique, en Océanie et en Asie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Europe, en Amérique, en Afrique, en Océanie et en Asie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Chthoniini Daday, 1888
 Aphrastochthonius Chamberlin, 1962
 Apochthonius Chamberlin, 1929
@@ -618,7 +634,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par Daday en 1888 comme une sous-famille des Cheliferidae.
 </t>
@@ -649,7 +667,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Daday, 1888 : « A Magyar Nemzeti Muzeum álskorpióinak áttekintése. » Természetrajzi Füzetek kiadja a Magyar nemzeti Muzeum, vol. 11, p. 111-136 &amp; 165-192 (texte intégral).</t>
         </is>
